--- a/Output/samples_worksheet_temp.xlsx
+++ b/Output/samples_worksheet_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Echevarria\Desktop\ECT_Report_Analysis\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75CE8C3E-C2BB-41C6-AEC3-1F76B1EC3496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E040B55-3D77-481B-99B7-9702B67A24A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3D7EDEBB-DFE0-4B8B-9443-470F1534CE28}"/>
+    <workbookView xWindow="31635" yWindow="1035" windowWidth="18900" windowHeight="10980" xr2:uid="{3D7EDEBB-DFE0-4B8B-9443-470F1534CE28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1214,7 +1214,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F06D6B-7E9E-40DF-8ADC-6D7292BF5A57}">
   <dimension ref="A1:D379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,9 +3663,12 @@
       <c r="B142" s="1">
         <v>43812.597916666666</v>
       </c>
+      <c r="C142" s="1">
+        <v>43814.456944444442</v>
+      </c>
       <c r="D142" s="2">
         <f t="shared" si="2"/>
-        <v>-43812.597916666666</v>
+        <v>1.859027777776646</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,9 +3678,12 @@
       <c r="B143" s="1">
         <v>43810.449305555558</v>
       </c>
+      <c r="C143" s="1">
+        <v>43811.71875</v>
+      </c>
       <c r="D143" s="2">
         <f t="shared" si="2"/>
-        <v>-43810.449305555558</v>
+        <v>1.2694444444423425</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3687,9 +3693,12 @@
       <c r="B144" s="1">
         <v>43810.673611111109</v>
       </c>
+      <c r="C144" s="1">
+        <v>43811.925000000003</v>
+      </c>
       <c r="D144" s="2">
         <f t="shared" si="2"/>
-        <v>-43810.673611111109</v>
+        <v>1.2513888888934162</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3699,9 +3708,12 @@
       <c r="B145" s="1">
         <v>43832.629166666666</v>
       </c>
+      <c r="C145" s="1">
+        <v>43832.636111111111</v>
+      </c>
       <c r="D145" s="2">
         <f t="shared" si="2"/>
-        <v>-43832.629166666666</v>
+        <v>6.9444444452528842E-3</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,9 +3723,12 @@
       <c r="B146" s="1">
         <v>43816.754861111112</v>
       </c>
+      <c r="C146" s="1">
+        <v>43817.213888888888</v>
+      </c>
       <c r="D146" s="2">
         <f t="shared" si="2"/>
-        <v>-43816.754861111112</v>
+        <v>0.45902777777519077</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3723,9 +3738,12 @@
       <c r="B147" s="1">
         <v>43815.556250000001</v>
       </c>
+      <c r="C147" s="1">
+        <v>43815.559027777781</v>
+      </c>
       <c r="D147" s="2">
         <f t="shared" si="2"/>
-        <v>-43815.556250000001</v>
+        <v>2.7777777795563452E-3</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3735,9 +3753,12 @@
       <c r="B148" s="1">
         <v>43825.675000000003</v>
       </c>
+      <c r="C148" s="1">
+        <v>43825.682638888888</v>
+      </c>
       <c r="D148" s="2">
         <f t="shared" si="2"/>
-        <v>-43825.675000000003</v>
+        <v>7.6388888846850023E-3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3747,9 +3768,12 @@
       <c r="B149" s="1">
         <v>43822.370138888888</v>
       </c>
+      <c r="C149" s="1">
+        <v>43822.377083333333</v>
+      </c>
       <c r="D149" s="2">
         <f t="shared" si="2"/>
-        <v>-43822.370138888888</v>
+        <v>6.9444444452528842E-3</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,9 +3783,12 @@
       <c r="B150" s="1">
         <v>43808.602083333331</v>
       </c>
+      <c r="C150" s="1">
+        <v>43810.37222222222</v>
+      </c>
       <c r="D150" s="2">
         <f t="shared" si="2"/>
-        <v>-43808.602083333331</v>
+        <v>1.7701388888890506</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,9 +3798,12 @@
       <c r="B151" s="1">
         <v>43825.414583333331</v>
       </c>
+      <c r="C151" s="1">
+        <v>43825.438194444447</v>
+      </c>
       <c r="D151" s="2">
         <f t="shared" si="2"/>
-        <v>-43825.414583333331</v>
+        <v>2.3611111115314998E-2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,9 +3813,12 @@
       <c r="B152" s="1">
         <v>43829.592361111114</v>
       </c>
+      <c r="C152" s="1">
+        <v>43829.652777777781</v>
+      </c>
       <c r="D152" s="2">
         <f t="shared" si="2"/>
-        <v>-43829.592361111114</v>
+        <v>6.0416666667151731E-2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3795,9 +3828,12 @@
       <c r="B153" s="1">
         <v>43833.570138888892</v>
       </c>
+      <c r="C153" s="1">
+        <v>43833.597916666666</v>
+      </c>
       <c r="D153" s="2">
         <f t="shared" si="2"/>
-        <v>-43833.570138888892</v>
+        <v>2.7777777773735579E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,9 +3843,12 @@
       <c r="B154" s="1">
         <v>43804.779166666667</v>
       </c>
+      <c r="C154" s="1">
+        <v>43806.087500000001</v>
+      </c>
       <c r="D154" s="2">
         <f t="shared" si="2"/>
-        <v>-43804.779166666667</v>
+        <v>1.3083333333343035</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,9 +3858,12 @@
       <c r="B155" s="1">
         <v>43836.591666666667</v>
       </c>
+      <c r="C155" s="1">
+        <v>43836.597222222219</v>
+      </c>
       <c r="D155" s="2">
         <f t="shared" si="2"/>
-        <v>-43836.591666666667</v>
+        <v>5.5555555518367328E-3</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3831,9 +3873,12 @@
       <c r="B156" s="1">
         <v>43829.677777777775</v>
       </c>
+      <c r="C156" s="1">
+        <v>43829.686111111114</v>
+      </c>
       <c r="D156" s="2">
         <f t="shared" si="2"/>
-        <v>-43829.677777777775</v>
+        <v>8.3333333386690356E-3</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,9 +3888,12 @@
       <c r="B157" s="1">
         <v>43829.624305555553</v>
       </c>
+      <c r="C157" s="1">
+        <v>43830.288888888892</v>
+      </c>
       <c r="D157" s="2">
         <f t="shared" si="2"/>
-        <v>-43829.624305555553</v>
+        <v>0.66458333333866904</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3855,9 +3903,12 @@
       <c r="B158" s="1">
         <v>43804.620833333334</v>
       </c>
+      <c r="C158" s="1">
+        <v>43805.64166666667</v>
+      </c>
       <c r="D158" s="2">
         <f t="shared" si="2"/>
-        <v>-43804.620833333334</v>
+        <v>1.0208333333357587</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,9 +3918,12 @@
       <c r="B159" s="1">
         <v>43832.543749999997</v>
       </c>
+      <c r="C159" s="1">
+        <v>43832.54583333333</v>
+      </c>
       <c r="D159" s="2">
         <f t="shared" si="2"/>
-        <v>-43832.543749999997</v>
+        <v>2.0833333328482695E-3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,9 +3933,12 @@
       <c r="B160" s="1">
         <v>43822.327777777777</v>
       </c>
+      <c r="C160" s="1">
+        <v>43822.611111111109</v>
+      </c>
       <c r="D160" s="2">
         <f t="shared" si="2"/>
-        <v>-43822.327777777777</v>
+        <v>0.28333333333284827</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3891,9 +3948,12 @@
       <c r="B161" s="1">
         <v>43802.642361111109</v>
       </c>
+      <c r="C161" s="1">
+        <v>43802.656944444447</v>
+      </c>
       <c r="D161" s="2">
         <f t="shared" si="2"/>
-        <v>-43802.642361111109</v>
+        <v>1.4583333337213844E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3903,9 +3963,12 @@
       <c r="B162" s="1">
         <v>43819.62777777778</v>
       </c>
+      <c r="C162" s="1">
+        <v>43819.629861111112</v>
+      </c>
       <c r="D162" s="2">
         <f t="shared" si="2"/>
-        <v>-43819.62777777778</v>
+        <v>2.0833333328482695E-3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3915,9 +3978,12 @@
       <c r="B163" s="1">
         <v>43815.524305555555</v>
       </c>
+      <c r="C163" s="1">
+        <v>43815.768055555556</v>
+      </c>
       <c r="D163" s="2">
         <f t="shared" si="2"/>
-        <v>-43815.524305555555</v>
+        <v>0.24375000000145519</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,9 +3993,12 @@
       <c r="B164" s="1">
         <v>43816.675000000003</v>
       </c>
+      <c r="C164" s="1">
+        <v>43816.790972222225</v>
+      </c>
       <c r="D164" s="2">
         <f t="shared" si="2"/>
-        <v>-43816.675000000003</v>
+        <v>0.11597222222189885</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3939,9 +4008,12 @@
       <c r="B165" s="1">
         <v>43805.504166666666</v>
       </c>
+      <c r="C165" s="1">
+        <v>43805.506944444445</v>
+      </c>
       <c r="D165" s="2">
         <f t="shared" si="2"/>
-        <v>-43805.504166666666</v>
+        <v>2.7777777795563452E-3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,9 +4023,12 @@
       <c r="B166" s="1">
         <v>43817.26458333333</v>
       </c>
+      <c r="C166" s="1">
+        <v>43817.480555555558</v>
+      </c>
       <c r="D166" s="2">
         <f t="shared" si="2"/>
-        <v>-43817.26458333333</v>
+        <v>0.21597222222771961</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3963,9 +4038,12 @@
       <c r="B167" s="1">
         <v>43809.737500000003</v>
       </c>
+      <c r="C167" s="1">
+        <v>43810.443749999999</v>
+      </c>
       <c r="D167" s="2">
         <f t="shared" si="2"/>
-        <v>-43809.737500000003</v>
+        <v>0.70624999999563443</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3975,9 +4053,12 @@
       <c r="B168" s="1">
         <v>43802.319444444445</v>
       </c>
+      <c r="C168" s="1">
+        <v>43802.543055555558</v>
+      </c>
       <c r="D168" s="2">
         <f t="shared" si="2"/>
-        <v>-43802.319444444445</v>
+        <v>0.22361111111240461</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,9 +4068,12 @@
       <c r="B169" s="1">
         <v>43815.709722222222</v>
       </c>
+      <c r="C169" s="1">
+        <v>43815.711805555555</v>
+      </c>
       <c r="D169" s="2">
         <f t="shared" si="2"/>
-        <v>-43815.709722222222</v>
+        <v>2.0833333328482695E-3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3999,9 +4083,12 @@
       <c r="B170" s="1">
         <v>43804.495138888888</v>
       </c>
+      <c r="C170" s="1">
+        <v>43804.615277777775</v>
+      </c>
       <c r="D170" s="2">
         <f t="shared" si="2"/>
-        <v>-43804.495138888888</v>
+        <v>0.12013888888759539</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4011,9 +4098,12 @@
       <c r="B171" s="1">
         <v>43819.47152777778</v>
       </c>
+      <c r="C171" s="1">
+        <v>43819.473611111112</v>
+      </c>
       <c r="D171" s="2">
         <f t="shared" si="2"/>
-        <v>-43819.47152777778</v>
+        <v>2.0833333328482695E-3</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4023,9 +4113,12 @@
       <c r="B172" s="1">
         <v>43816.611111111109</v>
       </c>
+      <c r="C172" s="1">
+        <v>43816.614583333336</v>
+      </c>
       <c r="D172" s="2">
         <f t="shared" si="2"/>
-        <v>-43816.611111111109</v>
+        <v>3.4722222262644209E-3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,9 +4128,12 @@
       <c r="B173" s="1">
         <v>43832.536111111112</v>
       </c>
+      <c r="C173" s="1">
+        <v>43832.646527777775</v>
+      </c>
       <c r="D173" s="2">
         <f t="shared" si="2"/>
-        <v>-43832.536111111112</v>
+        <v>0.11041666666278616</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4047,9 +4143,12 @@
       <c r="B174" s="1">
         <v>43815.368750000001</v>
       </c>
+      <c r="C174" s="1">
+        <v>43815.37222222222</v>
+      </c>
       <c r="D174" s="2">
         <f t="shared" si="2"/>
-        <v>-43815.368750000001</v>
+        <v>3.4722222189884633E-3</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4059,9 +4158,12 @@
       <c r="B175" s="1">
         <v>43805.464583333334</v>
       </c>
+      <c r="C175" s="1">
+        <v>43807.415277777778</v>
+      </c>
       <c r="D175" s="2">
         <f t="shared" si="2"/>
-        <v>-43805.464583333334</v>
+        <v>1.9506944444437977</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4071,9 +4173,12 @@
       <c r="B176" s="1">
         <v>43830.470833333333</v>
       </c>
+      <c r="C176" s="1">
+        <v>43830.524305555555</v>
+      </c>
       <c r="D176" s="2">
         <f t="shared" si="2"/>
-        <v>-43830.470833333333</v>
+        <v>5.3472222221898846E-2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4083,9 +4188,12 @@
       <c r="B177" s="1">
         <v>43836.32916666667</v>
       </c>
+      <c r="C177" s="1">
+        <v>43836.378472222219</v>
+      </c>
       <c r="D177" s="2">
         <f t="shared" si="2"/>
-        <v>-43836.32916666667</v>
+        <v>4.930555554892635E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,9 +4203,12 @@
       <c r="B178" s="1">
         <v>43836.68472222222</v>
       </c>
+      <c r="C178" s="1">
+        <v>43836.688194444447</v>
+      </c>
       <c r="D178" s="2">
         <f t="shared" si="2"/>
-        <v>-43836.68472222222</v>
+        <v>3.4722222262644209E-3</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4107,9 +4218,12 @@
       <c r="B179" s="1">
         <v>43796.354166666664</v>
       </c>
+      <c r="C179" s="1">
+        <v>43796.879861111112</v>
+      </c>
       <c r="D179" s="2">
         <f t="shared" si="2"/>
-        <v>-43796.354166666664</v>
+        <v>0.52569444444816327</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4119,9 +4233,12 @@
       <c r="B180" s="1">
         <v>43818.470833333333</v>
       </c>
+      <c r="C180" s="1">
+        <v>43818.645833333336</v>
+      </c>
       <c r="D180" s="2">
         <f t="shared" si="2"/>
-        <v>-43818.470833333333</v>
+        <v>0.17500000000291038</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4131,9 +4248,12 @@
       <c r="B181" s="1">
         <v>43838.505555555559</v>
       </c>
+      <c r="C181" s="1">
+        <v>43838.521527777775</v>
+      </c>
       <c r="D181" s="2">
         <f t="shared" si="2"/>
-        <v>-43838.505555555559</v>
+        <v>1.597222221607808E-2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4143,9 +4263,12 @@
       <c r="B182" s="1">
         <v>43802.493750000001</v>
       </c>
+      <c r="C182" s="1">
+        <v>43802.507638888892</v>
+      </c>
       <c r="D182" s="2">
         <f t="shared" si="2"/>
-        <v>-43802.493750000001</v>
+        <v>1.3888888890505768E-2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4155,9 +4278,12 @@
       <c r="B183" s="1">
         <v>43830.563194444447</v>
       </c>
+      <c r="C183" s="1">
+        <v>43836.67083333333</v>
+      </c>
       <c r="D183" s="2">
         <f t="shared" si="2"/>
-        <v>-43830.563194444447</v>
+        <v>6.1076388888832298</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,9 +4293,12 @@
       <c r="B184" s="1">
         <v>43818.477777777778</v>
       </c>
+      <c r="C184" s="1">
+        <v>43818.48541666667</v>
+      </c>
       <c r="D184" s="2">
         <f t="shared" si="2"/>
-        <v>-43818.477777777778</v>
+        <v>7.6388888919609599E-3</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,9 +4308,12 @@
       <c r="B185" s="1">
         <v>43818.486805555556</v>
       </c>
+      <c r="C185" s="1">
+        <v>43818.491666666669</v>
+      </c>
       <c r="D185" s="2">
         <f t="shared" si="2"/>
-        <v>-43818.486805555556</v>
+        <v>4.8611111124046147E-3</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4191,9 +4323,12 @@
       <c r="B186" s="1">
         <v>43815.625694444447</v>
       </c>
+      <c r="C186" s="1">
+        <v>43815.629166666666</v>
+      </c>
       <c r="D186" s="2">
         <f t="shared" si="2"/>
-        <v>-43815.625694444447</v>
+        <v>3.4722222189884633E-3</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4203,9 +4338,12 @@
       <c r="B187" s="1">
         <v>43815.598611111112</v>
       </c>
+      <c r="C187" s="1">
+        <v>43815.602777777778</v>
+      </c>
       <c r="D187" s="2">
         <f t="shared" si="2"/>
-        <v>-43815.598611111112</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,9 +4353,12 @@
       <c r="B188" s="1">
         <v>43811.465277777781</v>
       </c>
+      <c r="C188" s="1">
+        <v>43811.713194444441</v>
+      </c>
       <c r="D188" s="2">
         <f t="shared" si="2"/>
-        <v>-43811.465277777781</v>
+        <v>0.24791666665987577</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4227,9 +4368,12 @@
       <c r="B189" s="1">
         <v>43829.77847222222</v>
       </c>
+      <c r="C189" s="1">
+        <v>43829.78125</v>
+      </c>
       <c r="D189" s="2">
         <f t="shared" si="2"/>
-        <v>-43829.77847222222</v>
+        <v>2.7777777795563452E-3</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,9 +4383,12 @@
       <c r="B190" s="1">
         <v>43838.761805555558</v>
       </c>
+      <c r="C190" s="1">
+        <v>43838.765972222223</v>
+      </c>
       <c r="D190" s="2">
         <f t="shared" si="2"/>
-        <v>-43838.761805555558</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4251,9 +4398,12 @@
       <c r="B191" s="1">
         <v>43815.802083333336</v>
       </c>
+      <c r="C191" s="1">
+        <v>43815.972916666666</v>
+      </c>
       <c r="D191" s="2">
         <f t="shared" si="2"/>
-        <v>-43815.802083333336</v>
+        <v>0.17083333332993789</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,9 +4413,12 @@
       <c r="B192" s="1">
         <v>43812.384027777778</v>
       </c>
+      <c r="C192" s="1">
+        <v>43812.946527777778</v>
+      </c>
       <c r="D192" s="2">
         <f t="shared" si="2"/>
-        <v>-43812.384027777778</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4275,9 +4428,12 @@
       <c r="B193" s="1">
         <v>43813.475694444445</v>
       </c>
+      <c r="C193" s="1">
+        <v>43813.486111111109</v>
+      </c>
       <c r="D193" s="2">
         <f t="shared" si="2"/>
-        <v>-43813.475694444445</v>
+        <v>1.0416666664241347E-2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4287,9 +4443,12 @@
       <c r="B194" s="1">
         <v>43838.617361111108</v>
       </c>
+      <c r="C194" s="1">
+        <v>43840.42083333333</v>
+      </c>
       <c r="D194" s="2">
         <f t="shared" si="2"/>
-        <v>-43838.617361111108</v>
+        <v>1.8034722222218988</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,9 +4458,12 @@
       <c r="B195" s="1">
         <v>43815.402083333334</v>
       </c>
+      <c r="C195" s="1">
+        <v>43815.410416666666</v>
+      </c>
       <c r="D195" s="2">
         <f t="shared" ref="D195:D258" si="3">C195-B195</f>
-        <v>-43815.402083333334</v>
+        <v>8.333333331393078E-3</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,9 +4473,12 @@
       <c r="B196" s="1">
         <v>43787.544444444444</v>
       </c>
+      <c r="C196" s="1">
+        <v>43788.53402777778</v>
+      </c>
       <c r="D196" s="2">
         <f t="shared" si="3"/>
-        <v>-43787.544444444444</v>
+        <v>0.98958333333575865</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,9 +4488,12 @@
       <c r="B197" s="1">
         <v>43804.533333333333</v>
       </c>
+      <c r="C197" s="1">
+        <v>43805.421527777777</v>
+      </c>
       <c r="D197" s="2">
         <f t="shared" si="3"/>
-        <v>-43804.533333333333</v>
+        <v>0.88819444444379769</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,9 +4503,12 @@
       <c r="B198" s="1">
         <v>43819.770138888889</v>
       </c>
+      <c r="C198" s="1">
+        <v>43822.479166666664</v>
+      </c>
       <c r="D198" s="2">
         <f t="shared" si="3"/>
-        <v>-43819.770138888889</v>
+        <v>2.7090277777751908</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,9 +4518,12 @@
       <c r="B199" s="1">
         <v>43809.493750000001</v>
       </c>
+      <c r="C199" s="1">
+        <v>43809.618055555555</v>
+      </c>
       <c r="D199" s="2">
         <f t="shared" si="3"/>
-        <v>-43809.493750000001</v>
+        <v>0.12430555555329192</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4359,9 +4533,12 @@
       <c r="B200" s="1">
         <v>43812.587500000001</v>
       </c>
+      <c r="C200" s="1">
+        <v>43812.59375</v>
+      </c>
       <c r="D200" s="2">
         <f t="shared" si="3"/>
-        <v>-43812.587500000001</v>
+        <v>6.2499999985448085E-3</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,9 +4548,12 @@
       <c r="B201" s="1">
         <v>43803.48541666667</v>
       </c>
+      <c r="C201" s="1">
+        <v>43803.490277777775</v>
+      </c>
       <c r="D201" s="2">
         <f t="shared" si="3"/>
-        <v>-43803.48541666667</v>
+        <v>4.8611111051286571E-3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,9 +4563,12 @@
       <c r="B202" s="1">
         <v>43816.566666666666</v>
       </c>
+      <c r="C202" s="1">
+        <v>43816.580555555556</v>
+      </c>
       <c r="D202" s="2">
         <f t="shared" si="3"/>
-        <v>-43816.566666666666</v>
+        <v>1.3888888890505768E-2</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,9 +4578,12 @@
       <c r="B203" s="1">
         <v>43808.534722222219</v>
       </c>
+      <c r="C203" s="1">
+        <v>43810.647222222222</v>
+      </c>
       <c r="D203" s="2">
         <f t="shared" si="3"/>
-        <v>-43808.534722222219</v>
+        <v>2.1125000000029104</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4407,9 +4593,12 @@
       <c r="B204" s="1">
         <v>43836.447916666664</v>
       </c>
+      <c r="C204" s="1">
+        <v>43836.45</v>
+      </c>
       <c r="D204" s="2">
         <f t="shared" si="3"/>
-        <v>-43836.447916666664</v>
+        <v>2.0833333328482695E-3</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,9 +4608,12 @@
       <c r="B205" s="1">
         <v>43809.488888888889</v>
       </c>
+      <c r="C205" s="1">
+        <v>43810.384027777778</v>
+      </c>
       <c r="D205" s="2">
         <f t="shared" si="3"/>
-        <v>-43809.488888888889</v>
+        <v>0.89513888888905058</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,9 +4623,12 @@
       <c r="B206" s="1">
         <v>43817.44027777778</v>
       </c>
+      <c r="C206" s="1">
+        <v>43818.44027777778</v>
+      </c>
       <c r="D206" s="2">
         <f t="shared" si="3"/>
-        <v>-43817.44027777778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4443,9 +4638,12 @@
       <c r="B207" s="1">
         <v>43802.415277777778</v>
       </c>
+      <c r="C207" s="1">
+        <v>43802.465277777781</v>
+      </c>
       <c r="D207" s="2">
         <f t="shared" si="3"/>
-        <v>-43802.415277777778</v>
+        <v>5.0000000002910383E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4455,9 +4653,12 @@
       <c r="B208" s="1">
         <v>43838.544444444444</v>
       </c>
+      <c r="C208" s="1">
+        <v>43839.423611111109</v>
+      </c>
       <c r="D208" s="2">
         <f t="shared" si="3"/>
-        <v>-43838.544444444444</v>
+        <v>0.87916666666569654</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4467,9 +4668,12 @@
       <c r="B209" s="1">
         <v>43808.864583333336</v>
       </c>
+      <c r="C209" s="1">
+        <v>43808.866666666669</v>
+      </c>
       <c r="D209" s="2">
         <f t="shared" si="3"/>
-        <v>-43808.864583333336</v>
+        <v>2.0833333328482695E-3</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,9 +4683,12 @@
       <c r="B210" s="1">
         <v>43822.50277777778</v>
       </c>
+      <c r="C210" s="1">
+        <v>43822.611805555556</v>
+      </c>
       <c r="D210" s="2">
         <f t="shared" si="3"/>
-        <v>-43822.50277777778</v>
+        <v>0.10902777777664596</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4491,9 +4698,12 @@
       <c r="B211" s="1">
         <v>43836.622916666667</v>
       </c>
+      <c r="C211" s="1">
+        <v>43836.636111111111</v>
+      </c>
       <c r="D211" s="2">
         <f t="shared" si="3"/>
-        <v>-43836.622916666667</v>
+        <v>1.3194444443797693E-2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,9 +4713,12 @@
       <c r="B212" s="1">
         <v>43829.434027777781</v>
       </c>
+      <c r="C212" s="1">
+        <v>43829.436805555553</v>
+      </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>-43829.434027777781</v>
+        <v>2.7777777722803876E-3</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,9 +4728,12 @@
       <c r="B213" s="1">
         <v>43796.672222222223</v>
       </c>
+      <c r="C213" s="1">
+        <v>43796.6875</v>
+      </c>
       <c r="D213" s="2">
         <f t="shared" si="3"/>
-        <v>-43796.672222222223</v>
+        <v>1.5277777776645962E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4527,9 +4743,12 @@
       <c r="B214" s="1">
         <v>43812.373611111114</v>
       </c>
+      <c r="C214" s="1">
+        <v>43812.379861111112</v>
+      </c>
       <c r="D214" s="2">
         <f t="shared" si="3"/>
-        <v>-43812.373611111114</v>
+        <v>6.2499999985448085E-3</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,9 +4758,12 @@
       <c r="B215" s="1">
         <v>43818.6875</v>
       </c>
+      <c r="C215" s="1">
+        <v>43818.693055555559</v>
+      </c>
       <c r="D215" s="2">
         <f t="shared" si="3"/>
-        <v>-43818.6875</v>
+        <v>5.5555555591126904E-3</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4551,9 +4773,12 @@
       <c r="B216" s="1">
         <v>43811.570138888892</v>
       </c>
+      <c r="C216" s="1">
+        <v>43811.574999999997</v>
+      </c>
       <c r="D216" s="2">
         <f t="shared" si="3"/>
-        <v>-43811.570138888892</v>
+        <v>4.8611111051286571E-3</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4563,9 +4788,12 @@
       <c r="B217" s="1">
         <v>43830.446527777778</v>
       </c>
+      <c r="C217" s="1">
+        <v>43830.543749999997</v>
+      </c>
       <c r="D217" s="2">
         <f t="shared" si="3"/>
-        <v>-43830.446527777778</v>
+        <v>9.7222222218988463E-2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4575,9 +4803,12 @@
       <c r="B218" s="1">
         <v>43817.393750000003</v>
       </c>
+      <c r="C218" s="1">
+        <v>43818.48541666667</v>
+      </c>
       <c r="D218" s="2">
         <f t="shared" si="3"/>
-        <v>-43817.393750000003</v>
+        <v>1.0916666666671517</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,9 +4818,12 @@
       <c r="B219" s="1">
         <v>43804.560416666667</v>
       </c>
+      <c r="C219" s="1">
+        <v>43804.567361111112</v>
+      </c>
       <c r="D219" s="2">
         <f t="shared" si="3"/>
-        <v>-43804.560416666667</v>
+        <v>6.9444444452528842E-3</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4599,9 +4833,12 @@
       <c r="B220" s="1">
         <v>43819.499305555553</v>
       </c>
+      <c r="C220" s="1">
+        <v>43819.50277777778</v>
+      </c>
       <c r="D220" s="2">
         <f t="shared" si="3"/>
-        <v>-43819.499305555553</v>
+        <v>3.4722222262644209E-3</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4611,9 +4848,12 @@
       <c r="B221" s="1">
         <v>43794.443055555559</v>
       </c>
+      <c r="C221" s="1">
+        <v>43794.461805555555</v>
+      </c>
       <c r="D221" s="2">
         <f t="shared" si="3"/>
-        <v>-43794.443055555559</v>
+        <v>1.8749999995634425E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4623,9 +4863,12 @@
       <c r="B222" s="1">
         <v>43825.432638888888</v>
       </c>
+      <c r="C222" s="1">
+        <v>43825.436111111114</v>
+      </c>
       <c r="D222" s="2">
         <f t="shared" si="3"/>
-        <v>-43825.432638888888</v>
+        <v>3.4722222262644209E-3</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4635,9 +4878,12 @@
       <c r="B223" s="1">
         <v>43809.592361111114</v>
       </c>
+      <c r="C223" s="1">
+        <v>43809.745138888888</v>
+      </c>
       <c r="D223" s="2">
         <f t="shared" si="3"/>
-        <v>-43809.592361111114</v>
+        <v>0.15277777777373558</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4647,9 +4893,12 @@
       <c r="B224" s="1">
         <v>43805.650694444441</v>
       </c>
+      <c r="C224" s="1">
+        <v>43805.729861111111</v>
+      </c>
       <c r="D224" s="2">
         <f t="shared" si="3"/>
-        <v>-43805.650694444441</v>
+        <v>7.9166666670062114E-2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,9 +4908,12 @@
       <c r="B225" s="1">
         <v>43818.515972222223</v>
       </c>
+      <c r="C225" s="1">
+        <v>43818.765972222223</v>
+      </c>
       <c r="D225" s="2">
         <f t="shared" si="3"/>
-        <v>-43818.515972222223</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4671,9 +4923,12 @@
       <c r="B226" s="1">
         <v>43816.643750000003</v>
       </c>
+      <c r="C226" s="1">
+        <v>43817.602777777778</v>
+      </c>
       <c r="D226" s="2">
         <f t="shared" si="3"/>
-        <v>-43816.643750000003</v>
+        <v>0.95902777777519077</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,9 +4938,12 @@
       <c r="B227" s="1">
         <v>43832.48541666667</v>
       </c>
+      <c r="C227" s="1">
+        <v>43832.490277777775</v>
+      </c>
       <c r="D227" s="2">
         <f t="shared" si="3"/>
-        <v>-43832.48541666667</v>
+        <v>4.8611111051286571E-3</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4695,9 +4953,12 @@
       <c r="B228" s="1">
         <v>43816.472222222219</v>
       </c>
+      <c r="C228" s="1">
+        <v>43816.481249999997</v>
+      </c>
       <c r="D228" s="2">
         <f t="shared" si="3"/>
-        <v>-43816.472222222219</v>
+        <v>9.0277777781011537E-3</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,9 +4968,12 @@
       <c r="B229" s="1">
         <v>43818.404166666667</v>
       </c>
+      <c r="C229" s="1">
+        <v>43818.409722222219</v>
+      </c>
       <c r="D229" s="2">
         <f t="shared" si="3"/>
-        <v>-43818.404166666667</v>
+        <v>5.5555555518367328E-3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,9 +4983,12 @@
       <c r="B230" s="1">
         <v>43811.395138888889</v>
       </c>
+      <c r="C230" s="1">
+        <v>43812.486805555556</v>
+      </c>
       <c r="D230" s="2">
         <f t="shared" si="3"/>
-        <v>-43811.395138888889</v>
+        <v>1.0916666666671517</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4731,9 +4998,12 @@
       <c r="B231" s="1">
         <v>43816.616666666669</v>
       </c>
+      <c r="C231" s="1">
+        <v>43817.509027777778</v>
+      </c>
       <c r="D231" s="2">
         <f t="shared" si="3"/>
-        <v>-43816.616666666669</v>
+        <v>0.89236111110949423</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4743,9 +5013,12 @@
       <c r="B232" s="1">
         <v>43817.507638888892</v>
       </c>
+      <c r="C232" s="1">
+        <v>43817.515277777777</v>
+      </c>
       <c r="D232" s="2">
         <f t="shared" si="3"/>
-        <v>-43817.507638888892</v>
+        <v>7.6388888846850023E-3</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4753,11 +5026,14 @@
         <v>231</v>
       </c>
       <c r="B233" s="1">
-        <v>43797.48541666667</v>
+        <v>43797.36041666667</v>
+      </c>
+      <c r="C233" s="1">
+        <v>43797.376388888886</v>
       </c>
       <c r="D233" s="2">
         <f t="shared" si="3"/>
-        <v>-43797.48541666667</v>
+        <v>1.597222221607808E-2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4767,9 +5043,12 @@
       <c r="B234" s="1">
         <v>43803.431250000001</v>
       </c>
+      <c r="C234" s="1">
+        <v>43804.175694444442</v>
+      </c>
       <c r="D234" s="2">
         <f t="shared" si="3"/>
-        <v>-43803.431250000001</v>
+        <v>0.74444444444088731</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4779,9 +5058,12 @@
       <c r="B235" s="1">
         <v>43810.645138888889</v>
       </c>
+      <c r="C235" s="1">
+        <v>43811.701388888891</v>
+      </c>
       <c r="D235" s="2">
         <f t="shared" si="3"/>
-        <v>-43810.645138888889</v>
+        <v>1.0562500000014552</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4791,9 +5073,12 @@
       <c r="B236" s="1">
         <v>43810.468055555553</v>
       </c>
+      <c r="C236" s="1">
+        <v>43811.552083333336</v>
+      </c>
       <c r="D236" s="2">
         <f t="shared" si="3"/>
-        <v>-43810.468055555553</v>
+        <v>1.0840277777824667</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4803,9 +5088,12 @@
       <c r="B237" s="1">
         <v>43832.740277777775</v>
       </c>
+      <c r="C237" s="1">
+        <v>43832.908333333333</v>
+      </c>
       <c r="D237" s="2">
         <f t="shared" si="3"/>
-        <v>-43832.740277777775</v>
+        <v>0.1680555555576575</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4815,9 +5103,12 @@
       <c r="B238" s="1">
         <v>43798.681250000001</v>
       </c>
+      <c r="C238" s="1">
+        <v>43798.682638888888</v>
+      </c>
       <c r="D238" s="2">
         <f t="shared" si="3"/>
-        <v>-43798.681250000001</v>
+        <v>1.3888888861401938E-3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,9 +5118,12 @@
       <c r="B239" s="1">
         <v>43815.543055555558</v>
       </c>
+      <c r="C239" s="1">
+        <v>43815.606249999997</v>
+      </c>
       <c r="D239" s="2">
         <f t="shared" si="3"/>
-        <v>-43815.543055555558</v>
+        <v>6.3194444439432118E-2</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4839,9 +5133,12 @@
       <c r="B240" s="1">
         <v>43829.42083333333</v>
       </c>
+      <c r="C240" s="1">
+        <v>43829.429166666669</v>
+      </c>
       <c r="D240" s="2">
         <f t="shared" si="3"/>
-        <v>-43829.42083333333</v>
+        <v>8.3333333386690356E-3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4851,9 +5148,12 @@
       <c r="B241" s="1">
         <v>43784.594444444447</v>
       </c>
+      <c r="C241" s="1">
+        <v>43786.086805555555</v>
+      </c>
       <c r="D241" s="2">
         <f t="shared" si="3"/>
-        <v>-43784.594444444447</v>
+        <v>1.492361111108039</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4863,9 +5163,12 @@
       <c r="B242" s="1">
         <v>43832.723611111112</v>
       </c>
+      <c r="C242" s="1">
+        <v>43832.734027777777</v>
+      </c>
       <c r="D242" s="2">
         <f t="shared" si="3"/>
-        <v>-43832.723611111112</v>
+        <v>1.0416666664241347E-2</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,9 +5178,12 @@
       <c r="B243" s="1">
         <v>43819.493750000001</v>
       </c>
+      <c r="C243" s="1">
+        <v>43819.631249999999</v>
+      </c>
       <c r="D243" s="2">
         <f t="shared" si="3"/>
-        <v>-43819.493750000001</v>
+        <v>0.13749999999708962</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4887,9 +5193,12 @@
       <c r="B244" s="1">
         <v>43808.499305555553</v>
       </c>
+      <c r="C244" s="1">
+        <v>43808.50277777778</v>
+      </c>
       <c r="D244" s="2">
         <f t="shared" si="3"/>
-        <v>-43808.499305555553</v>
+        <v>3.4722222262644209E-3</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,9 +5208,12 @@
       <c r="B245" s="1">
         <v>43822.420138888891</v>
       </c>
+      <c r="C245" s="1">
+        <v>43822.428472222222</v>
+      </c>
       <c r="D245" s="2">
         <f t="shared" si="3"/>
-        <v>-43822.420138888891</v>
+        <v>8.333333331393078E-3</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4911,9 +5223,12 @@
       <c r="B246" s="1">
         <v>43815.51458333333</v>
       </c>
+      <c r="C246" s="1">
+        <v>43819.277777777781</v>
+      </c>
       <c r="D246" s="2">
         <f t="shared" si="3"/>
-        <v>-43815.51458333333</v>
+        <v>3.7631944444510737</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,9 +5238,12 @@
       <c r="B247" s="1">
         <v>43836.379166666666</v>
       </c>
+      <c r="C247" s="1">
+        <v>43836.388888888891</v>
+      </c>
       <c r="D247" s="2">
         <f t="shared" si="3"/>
-        <v>-43836.379166666666</v>
+        <v>9.7222222248092294E-3</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,9 +5253,12 @@
       <c r="B248" s="1">
         <v>43774.367361111108</v>
       </c>
+      <c r="C248" s="1">
+        <v>43774.370138888888</v>
+      </c>
       <c r="D248" s="2">
         <f t="shared" si="3"/>
-        <v>-43774.367361111108</v>
+        <v>2.7777777795563452E-3</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4947,9 +5268,12 @@
       <c r="B249" s="1">
         <v>43827.654861111114</v>
       </c>
+      <c r="C249" s="1">
+        <v>43829.328472222223</v>
+      </c>
       <c r="D249" s="2">
         <f t="shared" si="3"/>
-        <v>-43827.654861111114</v>
+        <v>1.6736111111094942</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4959,9 +5283,12 @@
       <c r="B250" s="1">
         <v>43817.59097222222</v>
       </c>
+      <c r="C250" s="1">
+        <v>43817.686805555553</v>
+      </c>
       <c r="D250" s="2">
         <f t="shared" si="3"/>
-        <v>-43817.59097222222</v>
+        <v>9.5833333332848269E-2</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4971,9 +5298,12 @@
       <c r="B251" s="1">
         <v>43838.520833333336</v>
       </c>
+      <c r="C251" s="1">
+        <v>43838.526388888888</v>
+      </c>
       <c r="D251" s="2">
         <f t="shared" si="3"/>
-        <v>-43838.520833333336</v>
+        <v>5.5555555518367328E-3</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4983,9 +5313,12 @@
       <c r="B252" s="1">
         <v>43837.470833333333</v>
       </c>
+      <c r="C252" s="1">
+        <v>43837.481944444444</v>
+      </c>
       <c r="D252" s="2">
         <f t="shared" si="3"/>
-        <v>-43837.470833333333</v>
+        <v>1.1111111110949423E-2</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4995,9 +5328,12 @@
       <c r="B253" s="1">
         <v>43789.439583333333</v>
       </c>
+      <c r="C253" s="1">
+        <v>43790.575694444444</v>
+      </c>
       <c r="D253" s="2">
         <f t="shared" si="3"/>
-        <v>-43789.439583333333</v>
+        <v>1.1361111111109494</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,9 +5343,12 @@
       <c r="B254" s="1">
         <v>43815.458333333336</v>
       </c>
+      <c r="C254" s="1">
+        <v>43815.568749999999</v>
+      </c>
       <c r="D254" s="2">
         <f t="shared" si="3"/>
-        <v>-43815.458333333336</v>
+        <v>0.11041666666278616</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,9 +5358,12 @@
       <c r="B255" s="1">
         <v>43837.681944444441</v>
       </c>
+      <c r="C255" s="1">
+        <v>43837.683333333334</v>
+      </c>
       <c r="D255" s="2">
         <f t="shared" si="3"/>
-        <v>-43837.681944444441</v>
+        <v>1.3888888934161514E-3</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5031,9 +5373,12 @@
       <c r="B256" s="1">
         <v>43799.570833333331</v>
       </c>
+      <c r="C256" s="1">
+        <v>43799.574305555558</v>
+      </c>
       <c r="D256" s="2">
         <f t="shared" si="3"/>
-        <v>-43799.570833333331</v>
+        <v>3.4722222262644209E-3</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5043,9 +5388,12 @@
       <c r="B257" s="1">
         <v>43804.697222222225</v>
       </c>
+      <c r="C257" s="1">
+        <v>43805.251388888886</v>
+      </c>
       <c r="D257" s="2">
         <f t="shared" si="3"/>
-        <v>-43804.697222222225</v>
+        <v>0.55416666666133096</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,9 +5403,12 @@
       <c r="B258" s="1">
         <v>43801.595833333333</v>
       </c>
+      <c r="C258" s="1">
+        <v>43805.675000000003</v>
+      </c>
       <c r="D258" s="2">
         <f t="shared" si="3"/>
-        <v>-43801.595833333333</v>
+        <v>4.0791666666700621</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5067,9 +5418,12 @@
       <c r="B259" s="1">
         <v>43815.700694444444</v>
       </c>
+      <c r="C259" s="1">
+        <v>43815.80972222222</v>
+      </c>
       <c r="D259" s="2">
         <f t="shared" ref="D259:D322" si="4">C259-B259</f>
-        <v>-43815.700694444444</v>
+        <v>0.10902777777664596</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5079,9 +5433,12 @@
       <c r="B260" s="1">
         <v>43811.606249999997</v>
       </c>
+      <c r="C260" s="1">
+        <v>43814.529861111114</v>
+      </c>
       <c r="D260" s="2">
         <f t="shared" si="4"/>
-        <v>-43811.606249999997</v>
+        <v>2.9236111111167702</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5091,9 +5448,12 @@
       <c r="B261" s="1">
         <v>43809.535416666666</v>
       </c>
+      <c r="C261" s="1">
+        <v>43809.538194444445</v>
+      </c>
       <c r="D261" s="2">
         <f t="shared" si="4"/>
-        <v>-43809.535416666666</v>
+        <v>2.7777777795563452E-3</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5103,9 +5463,12 @@
       <c r="B262" s="1">
         <v>43815.013888888891</v>
       </c>
+      <c r="C262" s="1">
+        <v>43815.539583333331</v>
+      </c>
       <c r="D262" s="2">
         <f t="shared" si="4"/>
-        <v>-43815.013888888891</v>
+        <v>0.52569444444088731</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5115,9 +5478,12 @@
       <c r="B263" s="1">
         <v>43812.497916666667</v>
       </c>
+      <c r="C263" s="1">
+        <v>43813.40347222222</v>
+      </c>
       <c r="D263" s="2">
         <f t="shared" si="4"/>
-        <v>-43812.497916666667</v>
+        <v>0.90555555555329192</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,9 +5493,12 @@
       <c r="B264" s="1">
         <v>43808.35</v>
       </c>
+      <c r="C264" s="1">
+        <v>43808.411805555559</v>
+      </c>
       <c r="D264" s="2">
         <f t="shared" si="4"/>
-        <v>-43808.35</v>
+        <v>6.1805555560567882E-2</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,9 +5508,12 @@
       <c r="B265" s="1">
         <v>43811.495833333334</v>
       </c>
+      <c r="C265" s="1">
+        <v>43811.751388888886</v>
+      </c>
       <c r="D265" s="2">
         <f t="shared" si="4"/>
-        <v>-43811.495833333334</v>
+        <v>0.25555555555183673</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,9 +5523,12 @@
       <c r="B266" s="1">
         <v>43810.515972222223</v>
       </c>
+      <c r="C266" s="1">
+        <v>43812.804861111108</v>
+      </c>
       <c r="D266" s="2">
         <f t="shared" si="4"/>
-        <v>-43810.515972222223</v>
+        <v>2.288888888884685</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5163,9 +5538,12 @@
       <c r="B267" s="1">
         <v>43810.522916666669</v>
       </c>
+      <c r="C267" s="1">
+        <v>43810.525000000001</v>
+      </c>
       <c r="D267" s="2">
         <f t="shared" si="4"/>
-        <v>-43810.522916666669</v>
+        <v>2.0833333328482695E-3</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,9 +5553,12 @@
       <c r="B268" s="1">
         <v>43822.621527777781</v>
       </c>
+      <c r="C268" s="1">
+        <v>43822.625694444447</v>
+      </c>
       <c r="D268" s="2">
         <f t="shared" si="4"/>
-        <v>-43822.621527777781</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,9 +5568,12 @@
       <c r="B269" s="1">
         <v>43817.356249999997</v>
       </c>
+      <c r="C269" s="1">
+        <v>43817.531944444447</v>
+      </c>
       <c r="D269" s="2">
         <f t="shared" si="4"/>
-        <v>-43817.356249999997</v>
+        <v>0.17569444444961846</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5199,9 +5583,12 @@
       <c r="B270" s="1">
         <v>43811.634027777778</v>
       </c>
+      <c r="C270" s="1">
+        <v>43812.841666666667</v>
+      </c>
       <c r="D270" s="2">
         <f t="shared" si="4"/>
-        <v>-43811.634027777778</v>
+        <v>1.2076388888890506</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,9 +5598,12 @@
       <c r="B271" s="1">
         <v>43816.665277777778</v>
       </c>
+      <c r="C271" s="1">
+        <v>43816.681250000001</v>
+      </c>
       <c r="D271" s="2">
         <f t="shared" si="4"/>
-        <v>-43816.665277777778</v>
+        <v>1.5972222223354038E-2</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5223,9 +5613,12 @@
       <c r="B272" s="1">
         <v>43801.507638888892</v>
       </c>
+      <c r="C272" s="1">
+        <v>43802.004166666666</v>
+      </c>
       <c r="D272" s="2">
         <f t="shared" si="4"/>
-        <v>-43801.507638888892</v>
+        <v>0.49652777777373558</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,9 +5628,12 @@
       <c r="B273" s="1">
         <v>43816.681250000001</v>
       </c>
+      <c r="C273" s="1">
+        <v>43816.772916666669</v>
+      </c>
       <c r="D273" s="2">
         <f t="shared" si="4"/>
-        <v>-43816.681250000001</v>
+        <v>9.1666666667151731E-2</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5247,9 +5643,12 @@
       <c r="B274" s="1">
         <v>43828.38958333333</v>
       </c>
+      <c r="C274" s="1">
+        <v>43828.390972222223</v>
+      </c>
       <c r="D274" s="2">
         <f t="shared" si="4"/>
-        <v>-43828.38958333333</v>
+        <v>1.3888888934161514E-3</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,9 +5658,12 @@
       <c r="B275" s="1">
         <v>43836.446527777778</v>
       </c>
+      <c r="C275" s="1">
+        <v>43836.539583333331</v>
+      </c>
       <c r="D275" s="2">
         <f t="shared" si="4"/>
-        <v>-43836.446527777778</v>
+        <v>9.3055555553291924E-2</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,9 +5673,12 @@
       <c r="B276" s="1">
         <v>43798.497916666667</v>
       </c>
+      <c r="C276" s="1">
+        <v>43798.542361111111</v>
+      </c>
       <c r="D276" s="2">
         <f t="shared" si="4"/>
-        <v>-43798.497916666667</v>
+        <v>4.4444444443797693E-2</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5283,9 +5688,12 @@
       <c r="B277" s="1">
         <v>43803.461805555555</v>
       </c>
+      <c r="C277" s="1">
+        <v>43804.252083333333</v>
+      </c>
       <c r="D277" s="2">
         <f t="shared" si="4"/>
-        <v>-43803.461805555555</v>
+        <v>0.79027777777810115</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,9 +5703,12 @@
       <c r="B278" s="1">
         <v>43817.474305555559</v>
       </c>
+      <c r="C278" s="1">
+        <v>43817.478472222225</v>
+      </c>
       <c r="D278" s="2">
         <f t="shared" si="4"/>
-        <v>-43817.474305555559</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5307,9 +5718,12 @@
       <c r="B279" s="1">
         <v>43833.567361111112</v>
       </c>
+      <c r="C279" s="1">
+        <v>43833.577777777777</v>
+      </c>
       <c r="D279" s="2">
         <f t="shared" si="4"/>
-        <v>-43833.567361111112</v>
+        <v>1.0416666664241347E-2</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5319,9 +5733,12 @@
       <c r="B280" s="1">
         <v>43811.520833333336</v>
       </c>
+      <c r="C280" s="1">
+        <v>43813.40625</v>
+      </c>
       <c r="D280" s="2">
         <f t="shared" si="4"/>
-        <v>-43811.520833333336</v>
+        <v>1.8854166666642413</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5331,9 +5748,12 @@
       <c r="B281" s="1">
         <v>43838.668749999997</v>
       </c>
+      <c r="C281" s="1">
+        <v>43838.67083333333</v>
+      </c>
       <c r="D281" s="2">
         <f t="shared" si="4"/>
-        <v>-43838.668749999997</v>
+        <v>2.0833333328482695E-3</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5343,9 +5763,12 @@
       <c r="B282" s="1">
         <v>43818.667361111111</v>
       </c>
+      <c r="C282" s="1">
+        <v>43818.673611111109</v>
+      </c>
       <c r="D282" s="2">
         <f t="shared" si="4"/>
-        <v>-43818.667361111111</v>
+        <v>6.2499999985448085E-3</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5355,9 +5778,12 @@
       <c r="B283" s="1">
         <v>43808.558333333334</v>
       </c>
+      <c r="C283" s="1">
+        <v>43809.116666666669</v>
+      </c>
       <c r="D283" s="2">
         <f t="shared" si="4"/>
-        <v>-43808.558333333334</v>
+        <v>0.55833333333430346</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5367,9 +5793,12 @@
       <c r="B284" s="1">
         <v>43811.728472222225</v>
       </c>
+      <c r="C284" s="1">
+        <v>43812.40902777778</v>
+      </c>
       <c r="D284" s="2">
         <f t="shared" si="4"/>
-        <v>-43811.728472222225</v>
+        <v>0.68055555555474712</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,9 +5808,12 @@
       <c r="B285" s="1">
         <v>43804.388194444444</v>
       </c>
+      <c r="C285" s="1">
+        <v>43804.393055555556</v>
+      </c>
       <c r="D285" s="2">
         <f t="shared" si="4"/>
-        <v>-43804.388194444444</v>
+        <v>4.8611111124046147E-3</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5391,9 +5823,12 @@
       <c r="B286" s="1">
         <v>43812.663194444445</v>
       </c>
+      <c r="C286" s="1">
+        <v>43815.29583333333</v>
+      </c>
       <c r="D286" s="2">
         <f t="shared" si="4"/>
-        <v>-43812.663194444445</v>
+        <v>2.632638888884685</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5403,9 +5838,12 @@
       <c r="B287" s="1">
         <v>43801.615277777775</v>
       </c>
+      <c r="C287" s="1">
+        <v>43801.71597222222</v>
+      </c>
       <c r="D287" s="2">
         <f t="shared" si="4"/>
-        <v>-43801.615277777775</v>
+        <v>0.10069444444525288</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,9 +5853,12 @@
       <c r="B288" s="1">
         <v>43808.535416666666</v>
       </c>
+      <c r="C288" s="1">
+        <v>43808.537499999999</v>
+      </c>
       <c r="D288" s="2">
         <f t="shared" si="4"/>
-        <v>-43808.535416666666</v>
+        <v>2.0833333328482695E-3</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5427,9 +5868,12 @@
       <c r="B289" s="1">
         <v>43810.636111111111</v>
       </c>
+      <c r="C289" s="1">
+        <v>43810.818749999999</v>
+      </c>
       <c r="D289" s="2">
         <f t="shared" si="4"/>
-        <v>-43810.636111111111</v>
+        <v>0.18263888888759539</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,9 +5883,12 @@
       <c r="B290" s="1">
         <v>43818.43472222222</v>
       </c>
+      <c r="C290" s="1">
+        <v>43818.438888888886</v>
+      </c>
       <c r="D290" s="2">
         <f t="shared" si="4"/>
-        <v>-43818.43472222222</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5451,9 +5898,12 @@
       <c r="B291" s="1">
         <v>43810.65347222222</v>
       </c>
+      <c r="C291" s="1">
+        <v>43813.518750000003</v>
+      </c>
       <c r="D291" s="2">
         <f t="shared" si="4"/>
-        <v>-43810.65347222222</v>
+        <v>2.8652777777824667</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5463,9 +5913,12 @@
       <c r="B292" s="1">
         <v>43823.331250000003</v>
       </c>
+      <c r="C292" s="1">
+        <v>43825.634722222225</v>
+      </c>
       <c r="D292" s="2">
         <f t="shared" si="4"/>
-        <v>-43823.331250000003</v>
+        <v>2.3034722222218988</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5475,9 +5928,12 @@
       <c r="B293" s="1">
         <v>43826.728472222225</v>
       </c>
+      <c r="C293" s="1">
+        <v>43826.89166666667</v>
+      </c>
       <c r="D293" s="2">
         <f t="shared" si="4"/>
-        <v>-43826.728472222225</v>
+        <v>0.16319444444525288</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5487,9 +5943,12 @@
       <c r="B294" s="1">
         <v>43810.657638888886</v>
       </c>
+      <c r="C294" s="1">
+        <v>43811.715277777781</v>
+      </c>
       <c r="D294" s="2">
         <f t="shared" si="4"/>
-        <v>-43810.657638888886</v>
+        <v>1.0576388888948713</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,9 +5958,12 @@
       <c r="B295" s="1">
         <v>43817.447916666664</v>
       </c>
+      <c r="C295" s="1">
+        <v>43817.761111111111</v>
+      </c>
       <c r="D295" s="2">
         <f t="shared" si="4"/>
-        <v>-43817.447916666664</v>
+        <v>0.31319444444670808</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5511,9 +5973,12 @@
       <c r="B296" s="1">
         <v>43832.467361111114</v>
       </c>
+      <c r="C296" s="1">
+        <v>43832.493750000001</v>
+      </c>
       <c r="D296" s="2">
         <f t="shared" si="4"/>
-        <v>-43832.467361111114</v>
+        <v>2.6388888887595385E-2</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,9 +5988,12 @@
       <c r="B297" s="1">
         <v>43808.706944444442</v>
       </c>
+      <c r="C297" s="1">
+        <v>43809.421527777777</v>
+      </c>
       <c r="D297" s="2">
         <f t="shared" si="4"/>
-        <v>-43808.706944444442</v>
+        <v>0.71458333333430346</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,9 +6003,12 @@
       <c r="B298" s="1">
         <v>43806.570833333331</v>
       </c>
+      <c r="C298" s="1">
+        <v>43807.336805555555</v>
+      </c>
       <c r="D298" s="2">
         <f t="shared" si="4"/>
-        <v>-43806.570833333331</v>
+        <v>0.76597222222335404</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5547,9 +6018,12 @@
       <c r="B299" s="1">
         <v>43815.563194444447</v>
       </c>
+      <c r="C299" s="1">
+        <v>43816.634027777778</v>
+      </c>
       <c r="D299" s="2">
         <f t="shared" si="4"/>
-        <v>-43815.563194444447</v>
+        <v>1.0708333333313931</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5559,9 +6033,12 @@
       <c r="B300" s="1">
         <v>43833.333333333336</v>
       </c>
+      <c r="C300" s="1">
+        <v>43833.450694444444</v>
+      </c>
       <c r="D300" s="2">
         <f t="shared" si="4"/>
-        <v>-43833.333333333336</v>
+        <v>0.11736111110803904</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5571,9 +6048,12 @@
       <c r="B301" s="1">
         <v>43808.56527777778</v>
       </c>
+      <c r="C301" s="1">
+        <v>43809.416666666664</v>
+      </c>
       <c r="D301" s="2">
         <f t="shared" si="4"/>
-        <v>-43808.56527777778</v>
+        <v>0.851388888884685</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5583,9 +6063,12 @@
       <c r="B302" s="1">
         <v>43826.519444444442</v>
       </c>
+      <c r="C302" s="1">
+        <v>43826.525694444441</v>
+      </c>
       <c r="D302" s="2">
         <f t="shared" si="4"/>
-        <v>-43826.519444444442</v>
+        <v>6.2499999985448085E-3</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5595,9 +6078,12 @@
       <c r="B303" s="1">
         <v>43836.38958333333</v>
       </c>
+      <c r="C303" s="1">
+        <v>43836.395833333336</v>
+      </c>
       <c r="D303" s="2">
         <f t="shared" si="4"/>
-        <v>-43836.38958333333</v>
+        <v>6.2500000058207661E-3</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5607,9 +6093,12 @@
       <c r="B304" s="1">
         <v>43830.481249999997</v>
       </c>
+      <c r="C304" s="1">
+        <v>43830.669444444444</v>
+      </c>
       <c r="D304" s="2">
         <f t="shared" si="4"/>
-        <v>-43830.481249999997</v>
+        <v>0.18819444444670808</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5619,9 +6108,12 @@
       <c r="B305" s="1">
         <v>43810.476388888892</v>
       </c>
+      <c r="C305" s="1">
+        <v>43810.481249999997</v>
+      </c>
       <c r="D305" s="2">
         <f t="shared" si="4"/>
-        <v>-43810.476388888892</v>
+        <v>4.8611111051286571E-3</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5631,9 +6123,12 @@
       <c r="B306" s="1">
         <v>43816.701388888891</v>
       </c>
+      <c r="C306" s="1">
+        <v>43817.418055555558</v>
+      </c>
       <c r="D306" s="2">
         <f t="shared" si="4"/>
-        <v>-43816.701388888891</v>
+        <v>0.71666666666715173</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5643,9 +6138,12 @@
       <c r="B307" s="1">
         <v>43836.453472222223</v>
       </c>
+      <c r="C307" s="1">
+        <v>43836.459027777775</v>
+      </c>
       <c r="D307" s="2">
         <f t="shared" si="4"/>
-        <v>-43836.453472222223</v>
+        <v>5.5555555518367328E-3</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5655,9 +6153,12 @@
       <c r="B308" s="1">
         <v>43839.422222222223</v>
       </c>
+      <c r="C308" s="1">
+        <v>43839.425694444442</v>
+      </c>
       <c r="D308" s="2">
         <f t="shared" si="4"/>
-        <v>-43839.422222222223</v>
+        <v>3.4722222189884633E-3</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5667,9 +6168,12 @@
       <c r="B309" s="1">
         <v>43808.644444444442</v>
       </c>
+      <c r="C309" s="1">
+        <v>43810.361111111109</v>
+      </c>
       <c r="D309" s="2">
         <f t="shared" si="4"/>
-        <v>-43808.644444444442</v>
+        <v>1.7166666666671517</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5679,9 +6183,12 @@
       <c r="B310" s="1">
         <v>43832.393750000003</v>
       </c>
+      <c r="C310" s="1">
+        <v>43832.396527777775</v>
+      </c>
       <c r="D310" s="2">
         <f t="shared" si="4"/>
-        <v>-43832.393750000003</v>
+        <v>2.7777777722803876E-3</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5691,9 +6198,12 @@
       <c r="B311" s="1">
         <v>43819.370833333334</v>
       </c>
+      <c r="C311" s="1">
+        <v>43821.440972222219</v>
+      </c>
       <c r="D311" s="2">
         <f t="shared" si="4"/>
-        <v>-43819.370833333334</v>
+        <v>2.070138888884685</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5703,9 +6213,12 @@
       <c r="B312" s="1">
         <v>43804.574305555558</v>
       </c>
+      <c r="C312" s="1">
+        <v>43804.57916666667</v>
+      </c>
       <c r="D312" s="2">
         <f t="shared" si="4"/>
-        <v>-43804.574305555558</v>
+        <v>4.8611111124046147E-3</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5715,9 +6228,12 @@
       <c r="B313" s="1">
         <v>43804.50277777778</v>
       </c>
+      <c r="C313" s="1">
+        <v>43805.049305555556</v>
+      </c>
       <c r="D313" s="2">
         <f t="shared" si="4"/>
-        <v>-43804.50277777778</v>
+        <v>0.54652777777664596</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5727,9 +6243,12 @@
       <c r="B314" s="1">
         <v>43816.729861111111</v>
       </c>
+      <c r="C314" s="1">
+        <v>43816.747916666667</v>
+      </c>
       <c r="D314" s="2">
         <f t="shared" si="4"/>
-        <v>-43816.729861111111</v>
+        <v>1.8055555556202307E-2</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,9 +6258,12 @@
       <c r="B315" s="1">
         <v>43836.399305555555</v>
       </c>
+      <c r="C315" s="1">
+        <v>43836.404861111114</v>
+      </c>
       <c r="D315" s="2">
         <f t="shared" si="4"/>
-        <v>-43836.399305555555</v>
+        <v>5.5555555591126904E-3</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5751,9 +6273,12 @@
       <c r="B316" s="1">
         <v>43819.461805555555</v>
       </c>
+      <c r="C316" s="1">
+        <v>43819.465277777781</v>
+      </c>
       <c r="D316" s="2">
         <f t="shared" si="4"/>
-        <v>-43819.461805555555</v>
+        <v>3.4722222262644209E-3</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5763,9 +6288,12 @@
       <c r="B317" s="1">
         <v>43833.402083333334</v>
       </c>
+      <c r="C317" s="1">
+        <v>43833.410416666666</v>
+      </c>
       <c r="D317" s="2">
         <f t="shared" si="4"/>
-        <v>-43833.402083333334</v>
+        <v>8.333333331393078E-3</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,9 +6303,12 @@
       <c r="B318" s="1">
         <v>43808.668055555558</v>
       </c>
+      <c r="C318" s="1">
+        <v>43809.718055555553</v>
+      </c>
       <c r="D318" s="2">
         <f t="shared" si="4"/>
-        <v>-43808.668055555558</v>
+        <v>1.0499999999956344</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5787,9 +6318,12 @@
       <c r="B319" s="1">
         <v>43810.625</v>
       </c>
+      <c r="C319" s="1">
+        <v>43812.508333333331</v>
+      </c>
       <c r="D319" s="2">
         <f t="shared" si="4"/>
-        <v>-43810.625</v>
+        <v>1.8833333333313931</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,9 +6333,12 @@
       <c r="B320" s="1">
         <v>43817.668055555558</v>
       </c>
+      <c r="C320" s="1">
+        <v>43817.676388888889</v>
+      </c>
       <c r="D320" s="2">
         <f t="shared" si="4"/>
-        <v>-43817.668055555558</v>
+        <v>8.333333331393078E-3</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5811,9 +6348,12 @@
       <c r="B321" s="1">
         <v>43818.654861111114</v>
       </c>
+      <c r="C321" s="1">
+        <v>43818.665972222225</v>
+      </c>
       <c r="D321" s="2">
         <f t="shared" si="4"/>
-        <v>-43818.654861111114</v>
+        <v>1.1111111110949423E-2</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5823,9 +6363,12 @@
       <c r="B322" s="1">
         <v>43797.583333333336</v>
       </c>
+      <c r="C322" s="1">
+        <v>43797.595138888886</v>
+      </c>
       <c r="D322" s="2">
         <f t="shared" si="4"/>
-        <v>-43797.583333333336</v>
+        <v>1.1805555550381541E-2</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5835,9 +6378,12 @@
       <c r="B323" s="1">
         <v>43826.616666666669</v>
       </c>
+      <c r="C323" s="1">
+        <v>43826.619444444441</v>
+      </c>
       <c r="D323" s="2">
         <f t="shared" ref="D323:D379" si="5">C323-B323</f>
-        <v>-43826.616666666669</v>
+        <v>2.7777777722803876E-3</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5847,9 +6393,12 @@
       <c r="B324" s="1">
         <v>43817.443749999999</v>
       </c>
+      <c r="C324" s="1">
+        <v>43817.450694444444</v>
+      </c>
       <c r="D324" s="2">
         <f t="shared" si="5"/>
-        <v>-43817.443749999999</v>
+        <v>6.9444444452528842E-3</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,9 +6408,12 @@
       <c r="B325" s="1">
         <v>43811.457638888889</v>
       </c>
+      <c r="C325" s="1">
+        <v>43812.664583333331</v>
+      </c>
       <c r="D325" s="2">
         <f t="shared" si="5"/>
-        <v>-43811.457638888889</v>
+        <v>1.2069444444423425</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -5871,9 +6423,12 @@
       <c r="B326" s="1">
         <v>43802.552083333336</v>
       </c>
+      <c r="C326" s="1">
+        <v>43802.554861111108</v>
+      </c>
       <c r="D326" s="2">
         <f t="shared" si="5"/>
-        <v>-43802.552083333336</v>
+        <v>2.7777777722803876E-3</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5883,9 +6438,12 @@
       <c r="B327" s="1">
         <v>43826.393750000003</v>
       </c>
+      <c r="C327" s="1">
+        <v>43826.400000000001</v>
+      </c>
       <c r="D327" s="2">
         <f t="shared" si="5"/>
-        <v>-43826.393750000003</v>
+        <v>6.2499999985448085E-3</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -5895,9 +6453,12 @@
       <c r="B328" s="1">
         <v>43811.585416666669</v>
       </c>
+      <c r="C328" s="1">
+        <v>43811.643750000003</v>
+      </c>
       <c r="D328" s="2">
         <f t="shared" si="5"/>
-        <v>-43811.585416666669</v>
+        <v>5.8333333334303461E-2</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5907,9 +6468,12 @@
       <c r="B329" s="1">
         <v>43819.555555555555</v>
       </c>
+      <c r="C329" s="1">
+        <v>43819.56527777778</v>
+      </c>
       <c r="D329" s="2">
         <f t="shared" si="5"/>
-        <v>-43819.555555555555</v>
+        <v>9.7222222248092294E-3</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -5919,9 +6483,12 @@
       <c r="B330" s="1">
         <v>43816.511805555558</v>
       </c>
+      <c r="C330" s="1">
+        <v>43817.631249999999</v>
+      </c>
       <c r="D330" s="2">
         <f t="shared" si="5"/>
-        <v>-43816.511805555558</v>
+        <v>1.1194444444408873</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -5931,9 +6498,12 @@
       <c r="B331" s="1">
         <v>43833.656944444447</v>
       </c>
+      <c r="C331" s="1">
+        <v>43833.72152777778</v>
+      </c>
       <c r="D331" s="2">
         <f t="shared" si="5"/>
-        <v>-43833.656944444447</v>
+        <v>6.4583333332848269E-2</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,9 +6513,12 @@
       <c r="B332" s="1">
         <v>43781.916666666664</v>
       </c>
+      <c r="C332" s="1">
+        <v>43782.193055555559</v>
+      </c>
       <c r="D332" s="2">
         <f t="shared" si="5"/>
-        <v>-43781.916666666664</v>
+        <v>0.27638888889487134</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -5955,9 +6528,12 @@
       <c r="B333" s="1">
         <v>43825.486805555556</v>
       </c>
+      <c r="C333" s="1">
+        <v>43825.726388888892</v>
+      </c>
       <c r="D333" s="2">
         <f t="shared" si="5"/>
-        <v>-43825.486805555556</v>
+        <v>0.23958333333575865</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -5967,9 +6543,12 @@
       <c r="B334" s="1">
         <v>43829.510416666664</v>
       </c>
+      <c r="C334" s="1">
+        <v>43829.51458333333</v>
+      </c>
       <c r="D334" s="2">
         <f t="shared" si="5"/>
-        <v>-43829.510416666664</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -5979,9 +6558,12 @@
       <c r="B335" s="1">
         <v>43818.463888888888</v>
       </c>
+      <c r="C335" s="1">
+        <v>43818.638888888891</v>
+      </c>
       <c r="D335" s="2">
         <f t="shared" si="5"/>
-        <v>-43818.463888888888</v>
+        <v>0.17500000000291038</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -5991,9 +6573,12 @@
       <c r="B336" s="1">
         <v>43803.356944444444</v>
       </c>
+      <c r="C336" s="1">
+        <v>43805.254861111112</v>
+      </c>
       <c r="D336" s="2">
         <f t="shared" si="5"/>
-        <v>-43803.356944444444</v>
+        <v>1.8979166666686069</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6003,9 +6588,12 @@
       <c r="B337" s="1">
         <v>43832.406944444447</v>
       </c>
+      <c r="C337" s="1">
+        <v>43832.438194444447</v>
+      </c>
       <c r="D337" s="2">
         <f t="shared" si="5"/>
-        <v>-43832.406944444447</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6015,9 +6603,12 @@
       <c r="B338" s="1">
         <v>43819.365972222222</v>
       </c>
+      <c r="C338" s="1">
+        <v>43819.447916666664</v>
+      </c>
       <c r="D338" s="2">
         <f t="shared" si="5"/>
-        <v>-43819.365972222222</v>
+        <v>8.1944444442342501E-2</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,9 +6618,12 @@
       <c r="B339" s="1">
         <v>43818.61041666667</v>
       </c>
+      <c r="C339" s="1">
+        <v>43818.614583333336</v>
+      </c>
       <c r="D339" s="2">
         <f t="shared" si="5"/>
-        <v>-43818.61041666667</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6039,9 +6633,12 @@
       <c r="B340" s="1">
         <v>43825.57916666667</v>
       </c>
+      <c r="C340" s="1">
+        <v>43825.581944444442</v>
+      </c>
       <c r="D340" s="2">
         <f t="shared" si="5"/>
-        <v>-43825.57916666667</v>
+        <v>2.7777777722803876E-3</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6051,9 +6648,12 @@
       <c r="B341" s="1">
         <v>43812.385416666664</v>
       </c>
+      <c r="C341" s="1">
+        <v>43812.390972222223</v>
+      </c>
       <c r="D341" s="2">
         <f t="shared" si="5"/>
-        <v>-43812.385416666664</v>
+        <v>5.5555555591126904E-3</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6063,9 +6663,12 @@
       <c r="B342" s="1">
         <v>43841.589583333334</v>
       </c>
+      <c r="C342" s="1">
+        <v>43841.59652777778</v>
+      </c>
       <c r="D342" s="2">
         <f t="shared" si="5"/>
-        <v>-43841.589583333334</v>
+        <v>6.9444444452528842E-3</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6075,9 +6678,12 @@
       <c r="B343" s="1">
         <v>43838.413888888892</v>
       </c>
+      <c r="C343" s="1">
+        <v>43838.543749999997</v>
+      </c>
       <c r="D343" s="2">
         <f t="shared" si="5"/>
-        <v>-43838.413888888892</v>
+        <v>0.12986111110512866</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6087,9 +6693,12 @@
       <c r="B344" s="1">
         <v>43811.556944444441</v>
       </c>
+      <c r="C344" s="1">
+        <v>43811.55972222222</v>
+      </c>
       <c r="D344" s="2">
         <f t="shared" si="5"/>
-        <v>-43811.556944444441</v>
+        <v>2.7777777795563452E-3</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6099,9 +6708,12 @@
       <c r="B345" s="1">
         <v>43803.317361111112</v>
       </c>
+      <c r="C345" s="1">
+        <v>43803.320833333331</v>
+      </c>
       <c r="D345" s="2">
         <f t="shared" si="5"/>
-        <v>-43803.317361111112</v>
+        <v>3.4722222189884633E-3</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,9 +6723,12 @@
       <c r="B346" s="1">
         <v>43801.393750000003</v>
       </c>
+      <c r="C346" s="1">
+        <v>43801.401388888888</v>
+      </c>
       <c r="D346" s="2">
         <f t="shared" si="5"/>
-        <v>-43801.393750000003</v>
+        <v>7.6388888846850023E-3</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6123,9 +6738,12 @@
       <c r="B347" s="1">
         <v>43838.395833333336</v>
       </c>
+      <c r="C347" s="1">
+        <v>43838.411805555559</v>
+      </c>
       <c r="D347" s="2">
         <f t="shared" si="5"/>
-        <v>-43838.395833333336</v>
+        <v>1.5972222223354038E-2</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,9 +6753,12 @@
       <c r="B348" s="1">
         <v>43791.574999999997</v>
       </c>
+      <c r="C348" s="1">
+        <v>43793.535416666666</v>
+      </c>
       <c r="D348" s="2">
         <f t="shared" si="5"/>
-        <v>-43791.574999999997</v>
+        <v>1.9604166666686069</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6147,9 +6768,12 @@
       <c r="B349" s="1">
         <v>43810.525000000001</v>
       </c>
+      <c r="C349" s="1">
+        <v>43812.715277777781</v>
+      </c>
       <c r="D349" s="2">
         <f t="shared" si="5"/>
-        <v>-43810.525000000001</v>
+        <v>2.1902777777795563</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,9 +6783,12 @@
       <c r="B350" s="1">
         <v>43812.57916666667</v>
       </c>
+      <c r="C350" s="1">
+        <v>43812.584027777775</v>
+      </c>
       <c r="D350" s="2">
         <f t="shared" si="5"/>
-        <v>-43812.57916666667</v>
+        <v>4.8611111051286571E-3</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6171,9 +6798,12 @@
       <c r="B351" s="1">
         <v>43809.506249999999</v>
       </c>
+      <c r="C351" s="1">
+        <v>43809.511805555558</v>
+      </c>
       <c r="D351" s="2">
         <f t="shared" si="5"/>
-        <v>-43809.506249999999</v>
+        <v>5.5555555591126904E-3</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6183,9 +6813,12 @@
       <c r="B352" s="1">
         <v>43816.581250000003</v>
       </c>
+      <c r="C352" s="1">
+        <v>43816.589583333334</v>
+      </c>
       <c r="D352" s="2">
         <f t="shared" si="5"/>
-        <v>-43816.581250000003</v>
+        <v>8.333333331393078E-3</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,9 +6828,12 @@
       <c r="B353" s="1">
         <v>43829.659722222219</v>
       </c>
+      <c r="C353" s="1">
+        <v>43829.668749999997</v>
+      </c>
       <c r="D353" s="2">
         <f t="shared" si="5"/>
-        <v>-43829.659722222219</v>
+        <v>9.0277777781011537E-3</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6207,9 +6843,12 @@
       <c r="B354" s="1">
         <v>43837.680555555555</v>
       </c>
+      <c r="C354" s="1">
+        <v>43837.709027777775</v>
+      </c>
       <c r="D354" s="2">
         <f t="shared" si="5"/>
-        <v>-43837.680555555555</v>
+        <v>2.8472222220443655E-2</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -6219,9 +6858,12 @@
       <c r="B355" s="1">
         <v>43837.470833333333</v>
       </c>
+      <c r="C355" s="1">
+        <v>43837.481944444444</v>
+      </c>
       <c r="D355" s="2">
         <f t="shared" si="5"/>
-        <v>-43837.470833333333</v>
+        <v>1.1111111110949423E-2</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6231,9 +6873,12 @@
       <c r="B356" s="1">
         <v>43810.373611111114</v>
       </c>
+      <c r="C356" s="1">
+        <v>43810.613194444442</v>
+      </c>
       <c r="D356" s="2">
         <f t="shared" si="5"/>
-        <v>-43810.373611111114</v>
+        <v>0.23958333332848269</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -6243,9 +6888,12 @@
       <c r="B357" s="1">
         <v>43830.457638888889</v>
       </c>
+      <c r="C357" s="1">
+        <v>43830.461805555555</v>
+      </c>
       <c r="D357" s="2">
         <f t="shared" si="5"/>
-        <v>-43830.457638888889</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -6255,9 +6903,12 @@
       <c r="B358" s="1">
         <v>43811.386111111111</v>
       </c>
+      <c r="C358" s="1">
+        <v>43811.625694444447</v>
+      </c>
       <c r="D358" s="2">
         <f t="shared" si="5"/>
-        <v>-43811.386111111111</v>
+        <v>0.23958333333575865</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6267,9 +6918,12 @@
       <c r="B359" s="1">
         <v>43839.343055555553</v>
       </c>
+      <c r="C359" s="1">
+        <v>43839.347222222219</v>
+      </c>
       <c r="D359" s="2">
         <f t="shared" si="5"/>
-        <v>-43839.343055555553</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6279,9 +6933,12 @@
       <c r="B360" s="1">
         <v>43816.418749999997</v>
       </c>
+      <c r="C360" s="1">
+        <v>43816.497916666667</v>
+      </c>
       <c r="D360" s="2">
         <f t="shared" si="5"/>
-        <v>-43816.418749999997</v>
+        <v>7.9166666670062114E-2</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -6291,9 +6948,12 @@
       <c r="B361" s="1">
         <v>43823.548611111109</v>
       </c>
+      <c r="C361" s="1">
+        <v>43823.551388888889</v>
+      </c>
       <c r="D361" s="2">
         <f t="shared" si="5"/>
-        <v>-43823.548611111109</v>
+        <v>2.7777777795563452E-3</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -6303,9 +6963,12 @@
       <c r="B362" s="1">
         <v>43817.586111111108</v>
       </c>
+      <c r="C362" s="1">
+        <v>43817.589583333334</v>
+      </c>
       <c r="D362" s="2">
         <f t="shared" si="5"/>
-        <v>-43817.586111111108</v>
+        <v>3.4722222262644209E-3</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -6315,9 +6978,12 @@
       <c r="B363" s="1">
         <v>43802.470138888886</v>
       </c>
+      <c r="C363" s="1">
+        <v>43802.477083333331</v>
+      </c>
       <c r="D363" s="2">
         <f t="shared" si="5"/>
-        <v>-43802.470138888886</v>
+        <v>6.9444444452528842E-3</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,9 +6993,12 @@
       <c r="B364" s="1">
         <v>43796.577777777777</v>
       </c>
+      <c r="C364" s="1">
+        <v>43796.581250000003</v>
+      </c>
       <c r="D364" s="2">
         <f t="shared" si="5"/>
-        <v>-43796.577777777777</v>
+        <v>3.4722222262644209E-3</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -6339,9 +7008,12 @@
       <c r="B365" s="1">
         <v>43816.461805555555</v>
       </c>
+      <c r="C365" s="1">
+        <v>43816.46597222222</v>
+      </c>
       <c r="D365" s="2">
         <f t="shared" si="5"/>
-        <v>-43816.461805555555</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -6351,9 +7023,12 @@
       <c r="B366" s="1">
         <v>43833.495138888888</v>
       </c>
+      <c r="C366" s="1">
+        <v>43833.498611111114</v>
+      </c>
       <c r="D366" s="2">
         <f t="shared" si="5"/>
-        <v>-43833.495138888888</v>
+        <v>3.4722222262644209E-3</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -6363,9 +7038,12 @@
       <c r="B367" s="1">
         <v>43825.448611111111</v>
       </c>
+      <c r="C367" s="1">
+        <v>43825.457638888889</v>
+      </c>
       <c r="D367" s="2">
         <f t="shared" si="5"/>
-        <v>-43825.448611111111</v>
+        <v>9.0277777781011537E-3</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6375,9 +7053,12 @@
       <c r="B368" s="1">
         <v>43809.458333333336</v>
       </c>
+      <c r="C368" s="1">
+        <v>43810.188194444447</v>
+      </c>
       <c r="D368" s="2">
         <f t="shared" si="5"/>
-        <v>-43809.458333333336</v>
+        <v>0.72986111111094942</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -6387,9 +7068,12 @@
       <c r="B369" s="1">
         <v>43826.418749999997</v>
       </c>
+      <c r="C369" s="1">
+        <v>43826.428472222222</v>
+      </c>
       <c r="D369" s="2">
         <f t="shared" si="5"/>
-        <v>-43826.418749999997</v>
+        <v>9.7222222248092294E-3</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,9 +7083,12 @@
       <c r="B370" s="1">
         <v>43816.473611111112</v>
       </c>
+      <c r="C370" s="1">
+        <v>43816.546527777777</v>
+      </c>
       <c r="D370" s="2">
         <f t="shared" si="5"/>
-        <v>-43816.473611111112</v>
+        <v>7.2916666664241347E-2</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6411,9 +7098,12 @@
       <c r="B371" s="1">
         <v>43818.357638888891</v>
       </c>
+      <c r="C371" s="1">
+        <v>43818.361805555556</v>
+      </c>
       <c r="D371" s="2">
         <f t="shared" si="5"/>
-        <v>-43818.357638888891</v>
+        <v>4.166666665696539E-3</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6423,9 +7113,12 @@
       <c r="B372" s="1">
         <v>43802.581250000003</v>
       </c>
+      <c r="C372" s="1">
+        <v>43802.65625</v>
+      </c>
       <c r="D372" s="2">
         <f t="shared" si="5"/>
-        <v>-43802.581250000003</v>
+        <v>7.4999999997089617E-2</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -6435,9 +7128,12 @@
       <c r="B373" s="1">
         <v>43795.796527777777</v>
       </c>
+      <c r="C373" s="1">
+        <v>43795.818055555559</v>
+      </c>
       <c r="D373" s="2">
         <f t="shared" si="5"/>
-        <v>-43795.796527777777</v>
+        <v>2.1527777782466728E-2</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -6447,9 +7143,12 @@
       <c r="B374" s="1">
         <v>43837.463194444441</v>
       </c>
+      <c r="C374" s="1">
+        <v>43837.565972222219</v>
+      </c>
       <c r="D374" s="2">
         <f t="shared" si="5"/>
-        <v>-43837.463194444441</v>
+        <v>0.10277777777810115</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6459,9 +7158,12 @@
       <c r="B375" s="1">
         <v>43836.393055555556</v>
       </c>
+      <c r="C375" s="1">
+        <v>43836.493055555555</v>
+      </c>
       <c r="D375" s="2">
         <f t="shared" si="5"/>
-        <v>-43836.393055555556</v>
+        <v>9.9999999998544808E-2</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6471,9 +7173,12 @@
       <c r="B376" s="1">
         <v>43805.45</v>
       </c>
+      <c r="C376" s="1">
+        <v>43805.45208333333</v>
+      </c>
       <c r="D376" s="2">
         <f t="shared" si="5"/>
-        <v>-43805.45</v>
+        <v>2.0833333328482695E-3</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6483,9 +7188,12 @@
       <c r="B377" s="1">
         <v>43826.638194444444</v>
       </c>
+      <c r="C377" s="1">
+        <v>43826.67291666667</v>
+      </c>
       <c r="D377" s="2">
         <f t="shared" si="5"/>
-        <v>-43826.638194444444</v>
+        <v>3.4722222226264421E-2</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -6495,9 +7203,12 @@
       <c r="B378" s="1">
         <v>43816.422222222223</v>
       </c>
+      <c r="C378" s="1">
+        <v>43816.435416666667</v>
+      </c>
       <c r="D378" s="2">
         <f t="shared" si="5"/>
-        <v>-43816.422222222223</v>
+        <v>1.3194444443797693E-2</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -6507,9 +7218,12 @@
       <c r="B379" s="1">
         <v>43826.69027777778</v>
       </c>
+      <c r="C379" s="1">
+        <v>43826.693055555559</v>
+      </c>
       <c r="D379" s="2">
         <f t="shared" si="5"/>
-        <v>-43826.69027777778</v>
+        <v>2.7777777795563452E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Output/samples_worksheet_temp.xlsx
+++ b/Output/samples_worksheet_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Echevarria\Desktop\ECT_Report_Analysis\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E040B55-3D77-481B-99B7-9702B67A24A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF828F0-A145-439C-AC37-770BB226B0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31635" yWindow="1035" windowWidth="18900" windowHeight="10980" xr2:uid="{3D7EDEBB-DFE0-4B8B-9443-470F1534CE28}"/>
+    <workbookView xWindow="27150" yWindow="1950" windowWidth="18900" windowHeight="10980" xr2:uid="{3D7EDEBB-DFE0-4B8B-9443-470F1534CE28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1169,10 +1169,10 @@
     <t>SR Create TS</t>
   </si>
   <si>
-    <t>AP Applied TS</t>
-  </si>
-  <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>CQ Applied TS</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:D379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,10 +1550,10 @@
         <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
